--- a/data/ewas_cpgs_top_OS_with_EFSinfo_with_MethylScoreAML_Px_Coefs.xlsx
+++ b/data/ewas_cpgs_top_OS_with_EFSinfo_with_MethylScoreAML_Px_Coefs.xlsx
@@ -733,7 +733,7 @@
     <t>TRAF7</t>
   </si>
   <si>
-    <t>RASL10B;TAF15</t>
+    <t>TAF15;RASL10B</t>
   </si>
   <si>
     <t>MTL5</t>
@@ -796,7 +796,7 @@
     <t>EXT1</t>
   </si>
   <si>
-    <t>CTD-2162K18.3;CTD-2162K18.4</t>
+    <t>CTD-2162K18.4;CTD-2162K18.3</t>
   </si>
   <si>
     <t>SUMO3</t>
@@ -805,7 +805,7 @@
     <t>HCP5;MICA</t>
   </si>
   <si>
-    <t>AGAP2;TSPAN31</t>
+    <t>TSPAN31;AGAP2</t>
   </si>
   <si>
     <t>LNX1;LNX1-AS1;FIP1L1</t>
@@ -895,7 +895,7 @@
     <t>HK2</t>
   </si>
   <si>
-    <t>RP11-99J16__A.2;CAPN9</t>
+    <t>CAPN9;RP11-99J16__A.2</t>
   </si>
   <si>
     <t>BRD1</t>
@@ -904,7 +904,7 @@
     <t>RASGRP2</t>
   </si>
   <si>
-    <t>C7orf50;GPR146;RP11-449P15.1</t>
+    <t>RP11-449P15.1;C7orf50;GPR146</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -961,7 +961,7 @@
     <t>CTRB2</t>
   </si>
   <si>
-    <t>SLC35E2B;CDK11B;MMP23B</t>
+    <t>MMP23B;SLC35E2B;CDK11B</t>
   </si>
   <si>
     <t>UNC93B1</t>
@@ -1057,7 +1057,7 @@
     <t>SKAP1</t>
   </si>
   <si>
-    <t>PIP5K1C;AC004637.1</t>
+    <t>AC004637.1;PIP5K1C</t>
   </si>
   <si>
     <t>VPS13D</t>
@@ -1096,19 +1096,19 @@
     <t>PRSS23</t>
   </si>
   <si>
-    <t>ZNF750;TBCD</t>
+    <t>TBCD;ZNF750</t>
   </si>
   <si>
     <t>RP11-227H15.4</t>
   </si>
   <si>
-    <t>YAF2;PPHLN1</t>
+    <t>PPHLN1;YAF2</t>
   </si>
   <si>
     <t>EOGT</t>
   </si>
   <si>
-    <t>FAM53B;RP11-12J10.3</t>
+    <t>RP11-12J10.3;FAM53B</t>
   </si>
   <si>
     <t>RP11-1252I4.2</t>
@@ -1132,7 +1132,7 @@
     <t>ITPK1</t>
   </si>
   <si>
-    <t>AC007131.1;RP11-444A22.1;AC007131.2</t>
+    <t>AC007131.2;RP11-444A22.1;AC007131.1</t>
   </si>
   <si>
     <t>TRAF3IP2-AS1;TRAF3IP2</t>
@@ -1189,7 +1189,7 @@
     <t>protein_coding</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>unitary_pseudogene;processed_transcript</t>
@@ -1204,7 +1204,7 @@
     <t>antisense</t>
   </si>
   <si>
-    <t>sense_overlapping;protein_coding</t>
+    <t>protein_coding;sense_overlapping</t>
   </si>
   <si>
     <t>protein_coding;sense_intronic</t>
@@ -1213,7 +1213,7 @@
     <t>lincRNA;protein_coding</t>
   </si>
   <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;processed_transcript</t>
   </si>
   <si>
     <t>processed_pseudogene</t>
